--- a/data/nzd0386/nzd0386.xlsx
+++ b/data/nzd0386/nzd0386.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K375"/>
+  <dimension ref="A1:K378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14674,6 +14674,101 @@
         <v>511.57</v>
       </c>
       <c r="K375" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>462.9984210526316</v>
+      </c>
+      <c r="C376" t="n">
+        <v>454.9533333333333</v>
+      </c>
+      <c r="D376" t="n">
+        <v>464.6555555555556</v>
+      </c>
+      <c r="E376" t="n">
+        <v>465.66</v>
+      </c>
+      <c r="F376" t="n">
+        <v>479.15</v>
+      </c>
+      <c r="G376" t="n">
+        <v>469.6255555555555</v>
+      </c>
+      <c r="H376" t="n">
+        <v>488.62</v>
+      </c>
+      <c r="I376" t="n">
+        <v>502.57</v>
+      </c>
+      <c r="J376" t="n">
+        <v>507.68</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="n">
+        <v>468.0011111111111</v>
+      </c>
+      <c r="H377" t="n">
+        <v>484.47</v>
+      </c>
+      <c r="I377" t="n">
+        <v>499.01</v>
+      </c>
+      <c r="J377" t="n">
+        <v>508.27</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="n">
+        <v>487.2</v>
+      </c>
+      <c r="I378" t="n">
+        <v>500.32</v>
+      </c>
+      <c r="J378" t="n">
+        <v>506.39</v>
+      </c>
+      <c r="K378" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14690,7 +14785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18528,6 +18623,36 @@
       </c>
       <c r="B383" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -18696,28 +18821,28 @@
         <v>0.1242</v>
       </c>
       <c r="I2" t="n">
-        <v>6.435068288357026</v>
+        <v>6.432569916961373</v>
       </c>
       <c r="J2" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K2" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5208580028200077</v>
+        <v>0.5223002959913248</v>
       </c>
       <c r="M2" t="n">
-        <v>32.94927470361424</v>
+        <v>32.86443202764153</v>
       </c>
       <c r="N2" t="n">
-        <v>2094.796075114029</v>
+        <v>2088.382818029307</v>
       </c>
       <c r="O2" t="n">
-        <v>45.76894225469962</v>
+        <v>45.69882731569058</v>
       </c>
       <c r="P2" t="n">
-        <v>303.4910386438896</v>
+        <v>303.5148047538681</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18773,28 +18898,28 @@
         <v>0.093</v>
       </c>
       <c r="I3" t="n">
-        <v>6.281201905198286</v>
+        <v>6.278968028068642</v>
       </c>
       <c r="J3" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K3" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6099795759182303</v>
+        <v>0.6113539220530504</v>
       </c>
       <c r="M3" t="n">
-        <v>31.08285739052689</v>
+        <v>31.00638191388424</v>
       </c>
       <c r="N3" t="n">
-        <v>1347.00116872775</v>
+        <v>1343.091884539137</v>
       </c>
       <c r="O3" t="n">
-        <v>36.70151452907291</v>
+        <v>36.64821802679003</v>
       </c>
       <c r="P3" t="n">
-        <v>298.9783506648963</v>
+        <v>298.9998447159529</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -18850,28 +18975,28 @@
         <v>0.0655</v>
       </c>
       <c r="I4" t="n">
-        <v>6.254339926604432</v>
+        <v>6.255521405549238</v>
       </c>
       <c r="J4" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K4" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6119648430935012</v>
+        <v>0.6135492495332985</v>
       </c>
       <c r="M4" t="n">
-        <v>30.89504674223836</v>
+        <v>30.81221902066682</v>
       </c>
       <c r="N4" t="n">
-        <v>1341.941427607964</v>
+        <v>1338.204963925728</v>
       </c>
       <c r="O4" t="n">
-        <v>36.63251871777265</v>
+        <v>36.5814838945296</v>
       </c>
       <c r="P4" t="n">
-        <v>303.5328972535455</v>
+        <v>303.521707440933</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -18927,28 +19052,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>6.436946850123102</v>
+        <v>6.438766784725269</v>
       </c>
       <c r="J5" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K5" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6187535860170593</v>
+        <v>0.6203517082587224</v>
       </c>
       <c r="M5" t="n">
-        <v>31.5077346737795</v>
+        <v>31.42552966845011</v>
       </c>
       <c r="N5" t="n">
-        <v>1373.893393775523</v>
+        <v>1370.105617772416</v>
       </c>
       <c r="O5" t="n">
-        <v>37.06606795676502</v>
+        <v>37.01493776534571</v>
       </c>
       <c r="P5" t="n">
-        <v>298.7509310232944</v>
+        <v>298.7335829558363</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19004,28 +19129,28 @@
         <v>0.0467</v>
       </c>
       <c r="I6" t="n">
-        <v>6.207358491378494</v>
+        <v>6.216782055132599</v>
       </c>
       <c r="J6" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K6" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6255533580081283</v>
+        <v>0.6275705733717201</v>
       </c>
       <c r="M6" t="n">
-        <v>29.63334734499755</v>
+        <v>29.58145453009596</v>
       </c>
       <c r="N6" t="n">
-        <v>1237.75316120891</v>
+        <v>1235.129860526018</v>
       </c>
       <c r="O6" t="n">
-        <v>35.18171629140497</v>
+        <v>35.14441435741984</v>
       </c>
       <c r="P6" t="n">
-        <v>304.4863736857977</v>
+        <v>304.3966133030987</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19081,28 +19206,28 @@
         <v>0.0569</v>
       </c>
       <c r="I7" t="n">
-        <v>6.23628941013211</v>
+        <v>6.24432149969862</v>
       </c>
       <c r="J7" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K7" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6258804578846917</v>
+        <v>0.6294330855749922</v>
       </c>
       <c r="M7" t="n">
-        <v>29.75764346843633</v>
+        <v>29.61746569508611</v>
       </c>
       <c r="N7" t="n">
-        <v>1241.08576965438</v>
+        <v>1234.521233123089</v>
       </c>
       <c r="O7" t="n">
-        <v>35.22904724306889</v>
+        <v>35.13575434117061</v>
       </c>
       <c r="P7" t="n">
-        <v>303.0486308249096</v>
+        <v>302.9724329909562</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19158,28 +19283,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>7.03073717360114</v>
+        <v>7.048577365320015</v>
       </c>
       <c r="J8" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K8" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L8" t="n">
-        <v>0.631188748786832</v>
+        <v>0.6368943303596288</v>
       </c>
       <c r="M8" t="n">
-        <v>33.967634885453</v>
+        <v>33.72619994961718</v>
       </c>
       <c r="N8" t="n">
-        <v>1551.332259084033</v>
+        <v>1538.877920653764</v>
       </c>
       <c r="O8" t="n">
-        <v>39.38695544319253</v>
+        <v>39.22853452085312</v>
       </c>
       <c r="P8" t="n">
-        <v>297.5161221249533</v>
+        <v>297.347567854192</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -19235,28 +19360,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7.667381956278748</v>
+        <v>7.685538772095745</v>
       </c>
       <c r="J9" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K9" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6427140126141044</v>
+        <v>0.64800062324161</v>
       </c>
       <c r="M9" t="n">
-        <v>36.09197762113023</v>
+        <v>35.83969288017714</v>
       </c>
       <c r="N9" t="n">
-        <v>1765.163394828306</v>
+        <v>1751.255055027956</v>
       </c>
       <c r="O9" t="n">
-        <v>42.01384765560405</v>
+        <v>41.8479994148819</v>
       </c>
       <c r="P9" t="n">
-        <v>294.5429796400659</v>
+        <v>294.3699080884693</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -19312,28 +19437,28 @@
         <v>0.0556</v>
       </c>
       <c r="I10" t="n">
-        <v>7.708104376493364</v>
+        <v>7.728100691597358</v>
       </c>
       <c r="J10" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K10" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6484937984242358</v>
+        <v>0.6536503071797515</v>
       </c>
       <c r="M10" t="n">
-        <v>35.74040089967024</v>
+        <v>35.50270392010653</v>
       </c>
       <c r="N10" t="n">
-        <v>1748.160406169813</v>
+        <v>1735.034322645711</v>
       </c>
       <c r="O10" t="n">
-        <v>41.81100819365413</v>
+        <v>41.65374320089025</v>
       </c>
       <c r="P10" t="n">
-        <v>298.8137787818579</v>
+        <v>298.6232870129764</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -19370,7 +19495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K375"/>
+  <dimension ref="A1:K378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39953,6 +40078,133 @@
         </is>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>-42.217855646686466,173.8643927466267</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>-42.217933938730404,173.86349470507758</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>-42.218133022083386,173.8628002194031</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>-42.21837488702782,173.86217200304128</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>-42.21875426007786,173.86155253999854</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>-42.219022299952414,173.8608123753562</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>-42.21952904237833,173.86021169582625</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>-42.219961130000236,173.85966972986256</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>-42.22038151649982,173.85912189230163</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>-42.21901024100839,173.8608012327415</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>-42.21949843696994,173.86018283803347</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>-42.21993610352831,173.85964277095192</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>-42.220385475699544,173.85912665964543</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>-42.21951857016719,173.86020182159038</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>-42.21994531270836,173.85965269122275</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>-42.220372859943794,173.85911146878937</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0386/nzd0386.xlsx
+++ b/data/nzd0386/nzd0386.xlsx
@@ -18666,7 +18666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18757,35 +18757,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -18844,27 +18849,28 @@
       <c r="P2" t="n">
         <v>303.5148047538681</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.86309977834281 -42.21379827855943, 173.86560082900772 -42.22164614254624)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.8630997783428</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.21379827855943</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.8656008290077</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.22164614254624</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.8643503036753</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.21772221055284</v>
       </c>
     </row>
@@ -18921,27 +18927,28 @@
       <c r="P3" t="n">
         <v>298.9998447159529</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.86222423856663 -42.213947064629636, 173.86472522104606 -42.221794935958016)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.8622242385666</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.21394706462964</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.8647252210461</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.22179493595802</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.8634747298063</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.21787100029383</v>
       </c>
     </row>
@@ -18998,27 +19005,28 @@
       <c r="P4" t="n">
         <v>303.521707440933</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.8608889669844 -42.21419700677444, 173.86457306907104 -42.2217835357243)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.8608889669844</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.21419700677444</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.864573069071</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.2217835357243</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.8627310180277</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.21799027124937</v>
       </c>
     </row>
@@ -19075,27 +19083,28 @@
       <c r="P5" t="n">
         <v>298.7335829558363</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.85957196527988 -42.214653189704116, 173.86457351092537 -42.22181195981276)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.8595719652799</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.21465318970412</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.8645735109254</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.22181195981276</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.8620727381026</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.21823257475844</v>
       </c>
     </row>
@@ -19152,27 +19161,28 @@
       <c r="P6" t="n">
         <v>304.3966133030987</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.85852031695458 -42.21507461916966, 173.8641893972667 -42.221953700439066)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.8585203169546</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.21507461916966</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.8641893972667</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.22195370043907</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.8613548571107</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.21851415980436</v>
       </c>
     </row>
@@ -19229,27 +19239,28 @@
       <c r="P7" t="n">
         <v>302.9724329909562</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.8575912320163 -42.21553602139497, 173.8637359975082 -42.22218615154139)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.8575912320163</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.21553602139497</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.8637359975082</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.22218615154139</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.8606636147622</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.21886108646818</v>
       </c>
     </row>
@@ -19306,27 +19317,28 @@
       <c r="P8" t="n">
         <v>297.347567854192</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.85681417866175 -42.21592551621109, 173.8630434913271 -42.222532148442816)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.8568141786618</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.21592551621109</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.8630434913271</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.22253214844282</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.8599288349944</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.21922883232695</v>
       </c>
     </row>
@@ -19383,27 +19395,28 @@
       <c r="P9" t="n">
         <v>294.3699080884693</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.85586411534388 -42.216428043530776, 173.86264845771925 -42.22272617700921)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.8558641153439</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.21642804353078</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.8626484577192</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.22272617700921</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.8592562865315</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.21957711027</v>
       </c>
     </row>
@@ -19460,27 +19473,28 @@
       <c r="P10" t="n">
         <v>298.6232870129764</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.85501993526503 -42.21697464934641, 173.86225941027206 -42.22298702125579)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.855019935265</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-42.21697464934641</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.8622594102721</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-42.22298702125579</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.8586396727686</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-42.2199808353011</v>
       </c>
     </row>

--- a/data/nzd0386/nzd0386.xlsx
+++ b/data/nzd0386/nzd0386.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K378"/>
+  <dimension ref="A1:K380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14771,6 +14771,84 @@
       <c r="K378" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>473.3657894736842</v>
+      </c>
+      <c r="C379" t="n">
+        <v>461.1966666666667</v>
+      </c>
+      <c r="D379" t="n">
+        <v>471.3144444444445</v>
+      </c>
+      <c r="E379" t="n">
+        <v>476.63</v>
+      </c>
+      <c r="F379" t="n">
+        <v>472.9285714285714</v>
+      </c>
+      <c r="G379" t="n">
+        <v>466.7644444444445</v>
+      </c>
+      <c r="H379" t="n">
+        <v>493.12</v>
+      </c>
+      <c r="I379" t="n">
+        <v>504.79</v>
+      </c>
+      <c r="J379" t="n">
+        <v>511.47</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>481.3657894736842</v>
+      </c>
+      <c r="C380" t="n">
+        <v>473.57</v>
+      </c>
+      <c r="D380" t="n">
+        <v>466.82</v>
+      </c>
+      <c r="E380" t="n">
+        <v>474.33</v>
+      </c>
+      <c r="F380" t="n">
+        <v>468.8114285714286</v>
+      </c>
+      <c r="G380" t="n">
+        <v>473.79</v>
+      </c>
+      <c r="H380" t="n">
+        <v>491.82</v>
+      </c>
+      <c r="I380" t="n">
+        <v>507.14</v>
+      </c>
+      <c r="J380" t="n">
+        <v>504.81</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14785,7 +14863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B386"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18653,6 +18731,26 @@
       </c>
       <c r="B386" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -18826,28 +18924,28 @@
         <v>0.1242</v>
       </c>
       <c r="I2" t="n">
-        <v>6.432569916961373</v>
+        <v>6.443176278631782</v>
       </c>
       <c r="J2" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K2" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5223002959913248</v>
+        <v>0.5264230675765674</v>
       </c>
       <c r="M2" t="n">
-        <v>32.86443202764153</v>
+        <v>32.69902127874491</v>
       </c>
       <c r="N2" t="n">
-        <v>2088.382818029307</v>
+        <v>2076.107216780893</v>
       </c>
       <c r="O2" t="n">
-        <v>45.69882731569058</v>
+        <v>45.56431955797094</v>
       </c>
       <c r="P2" t="n">
-        <v>303.5148047538681</v>
+        <v>303.4125992688941</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18904,28 +19002,28 @@
         <v>0.093</v>
       </c>
       <c r="I3" t="n">
-        <v>6.278968028068642</v>
+        <v>6.287610620844397</v>
       </c>
       <c r="J3" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6113539220530504</v>
+        <v>0.6150917522318162</v>
       </c>
       <c r="M3" t="n">
-        <v>31.00638191388424</v>
+        <v>30.85285843313882</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.091884539137</v>
+        <v>1335.751478235276</v>
       </c>
       <c r="O3" t="n">
-        <v>36.64821802679003</v>
+        <v>36.54793398039451</v>
       </c>
       <c r="P3" t="n">
-        <v>298.9998447159529</v>
+        <v>298.9155652648768</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18982,28 +19080,28 @@
         <v>0.0655</v>
       </c>
       <c r="I4" t="n">
-        <v>6.255521405549238</v>
+        <v>6.261162140815754</v>
       </c>
       <c r="J4" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K4" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6135492495332985</v>
+        <v>0.6170078140076798</v>
       </c>
       <c r="M4" t="n">
-        <v>30.81221902066682</v>
+        <v>30.65713026212781</v>
       </c>
       <c r="N4" t="n">
-        <v>1338.204963925728</v>
+        <v>1330.944239282972</v>
       </c>
       <c r="O4" t="n">
-        <v>36.5814838945296</v>
+        <v>36.48210848187057</v>
       </c>
       <c r="P4" t="n">
-        <v>303.521707440933</v>
+        <v>303.4677779979488</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19060,28 +19158,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>6.438766784725269</v>
+        <v>6.451745641393797</v>
       </c>
       <c r="J5" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K5" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6203517082587224</v>
+        <v>0.6241804693496208</v>
       </c>
       <c r="M5" t="n">
-        <v>31.42552966845011</v>
+        <v>31.28863576246678</v>
       </c>
       <c r="N5" t="n">
-        <v>1370.105617772416</v>
+        <v>1363.262402720988</v>
       </c>
       <c r="O5" t="n">
-        <v>37.01493776534571</v>
+        <v>36.9223834918737</v>
       </c>
       <c r="P5" t="n">
-        <v>298.7335829558363</v>
+        <v>298.608545358205</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19138,28 +19236,28 @@
         <v>0.0467</v>
       </c>
       <c r="I6" t="n">
-        <v>6.216782055132599</v>
+        <v>6.224512447419615</v>
       </c>
       <c r="J6" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K6" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6275705733717201</v>
+        <v>0.6310678961428985</v>
       </c>
       <c r="M6" t="n">
-        <v>29.58145453009596</v>
+        <v>29.44357883171708</v>
       </c>
       <c r="N6" t="n">
-        <v>1235.129860526018</v>
+        <v>1228.685981676158</v>
       </c>
       <c r="O6" t="n">
-        <v>35.14441435741984</v>
+        <v>35.05261732989646</v>
       </c>
       <c r="P6" t="n">
-        <v>304.3966133030987</v>
+        <v>304.3222505437886</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19216,28 +19314,28 @@
         <v>0.0569</v>
       </c>
       <c r="I7" t="n">
-        <v>6.24432149969862</v>
+        <v>6.252347386358236</v>
       </c>
       <c r="J7" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K7" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6294330855749922</v>
+        <v>0.6330071786511819</v>
       </c>
       <c r="M7" t="n">
-        <v>29.61746569508611</v>
+        <v>29.47815286133544</v>
       </c>
       <c r="N7" t="n">
-        <v>1234.521233123089</v>
+        <v>1228.073960916548</v>
       </c>
       <c r="O7" t="n">
-        <v>35.13575434117061</v>
+        <v>35.04388621309783</v>
       </c>
       <c r="P7" t="n">
-        <v>302.9724329909562</v>
+        <v>302.895436653398</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19294,28 +19392,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>7.048577365320015</v>
+        <v>7.065236356474471</v>
       </c>
       <c r="J8" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K8" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6368943303596288</v>
+        <v>0.6409116436093238</v>
       </c>
       <c r="M8" t="n">
-        <v>33.72619994961718</v>
+        <v>33.57994604543087</v>
       </c>
       <c r="N8" t="n">
-        <v>1538.877920653764</v>
+        <v>1531.241210123367</v>
       </c>
       <c r="O8" t="n">
-        <v>39.22853452085312</v>
+        <v>39.13107729316134</v>
       </c>
       <c r="P8" t="n">
-        <v>297.347567854192</v>
+        <v>297.1888324221094</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19372,28 +19470,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7.685538772095745</v>
+        <v>7.701681377256937</v>
       </c>
       <c r="J9" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K9" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L9" t="n">
-        <v>0.64800062324161</v>
+        <v>0.65169155082394</v>
       </c>
       <c r="M9" t="n">
-        <v>35.83969288017714</v>
+        <v>35.68424068388973</v>
       </c>
       <c r="N9" t="n">
-        <v>1751.255055027956</v>
+        <v>1742.596764845471</v>
       </c>
       <c r="O9" t="n">
-        <v>41.8479994148819</v>
+        <v>41.7444219608497</v>
       </c>
       <c r="P9" t="n">
-        <v>294.3699080884693</v>
+        <v>294.2146135175676</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19450,28 +19548,28 @@
         <v>0.0556</v>
       </c>
       <c r="I10" t="n">
-        <v>7.728100691597358</v>
+        <v>7.740213834707192</v>
       </c>
       <c r="J10" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K10" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6536503071797515</v>
+        <v>0.6570180457096703</v>
       </c>
       <c r="M10" t="n">
-        <v>35.50270392010653</v>
+        <v>35.3423376328693</v>
       </c>
       <c r="N10" t="n">
-        <v>1735.034322645711</v>
+        <v>1726.347005225344</v>
       </c>
       <c r="O10" t="n">
-        <v>41.65374320089025</v>
+        <v>41.54933218747738</v>
       </c>
       <c r="P10" t="n">
-        <v>298.6232870129764</v>
+        <v>298.5069626247014</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19509,7 +19607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K378"/>
+  <dimension ref="A1:K380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40219,6 +40317,120 @@
         </is>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>-42.21794649824856,173.8644217004566</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>-42.21798865055307,173.86351214085312</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>-42.218189428090675,173.8628276109429</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>-42.21846256185405,173.8622332583424</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>-42.21870648305633,173.86151316642668</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>-42.219001060703455,173.8607927500288</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>-42.21956222895708,173.86024298744044</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>-42.2199767363923,173.8596865413289</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>-42.220406949321514,173.8591525164356</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>-42.21801660402659,173.8644440427939</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>-42.21809708102113,173.86354669598896</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>-42.21815135662489,173.86280912290505</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>-42.21844417971476,173.86222041537542</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>-42.218674865740454,173.86148711028633</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>-42.21905321439465,173.86084094071072</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>-42.21955264172416,173.8602339476374</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>-42.219993256669355,173.8597043372595</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>-42.22036225733895,173.85909870201073</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0386/nzd0386.xlsx
+++ b/data/nzd0386/nzd0386.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K380"/>
+  <dimension ref="A1:K382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14849,6 +14849,84 @@
       <c r="K380" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>477.5647368421053</v>
+      </c>
+      <c r="C381" t="n">
+        <v>466.4666666666667</v>
+      </c>
+      <c r="D381" t="n">
+        <v>471.4477777777778</v>
+      </c>
+      <c r="E381" t="n">
+        <v>475.22</v>
+      </c>
+      <c r="F381" t="n">
+        <v>473.1342857142857</v>
+      </c>
+      <c r="G381" t="n">
+        <v>472.2977777777778</v>
+      </c>
+      <c r="H381" t="n">
+        <v>488.74</v>
+      </c>
+      <c r="I381" t="n">
+        <v>506.23</v>
+      </c>
+      <c r="J381" t="n">
+        <v>510.2</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>461.5063157894737</v>
+      </c>
+      <c r="C382" t="n">
+        <v>457.2066666666667</v>
+      </c>
+      <c r="D382" t="n">
+        <v>463.3811111111111</v>
+      </c>
+      <c r="E382" t="n">
+        <v>466.43</v>
+      </c>
+      <c r="F382" t="n">
+        <v>469.2985714285714</v>
+      </c>
+      <c r="G382" t="n">
+        <v>470.0711111111111</v>
+      </c>
+      <c r="H382" t="n">
+        <v>484.3</v>
+      </c>
+      <c r="I382" t="n">
+        <v>494.99</v>
+      </c>
+      <c r="J382" t="n">
+        <v>500.45</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -14863,7 +14941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B388"/>
+  <dimension ref="A1:B390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18751,6 +18829,26 @@
       </c>
       <c r="B388" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -18924,28 +19022,28 @@
         <v>0.1242</v>
       </c>
       <c r="I2" t="n">
-        <v>6.443176278631782</v>
+        <v>6.442841141863651</v>
       </c>
       <c r="J2" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K2" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5264230675765674</v>
+        <v>0.5297171985855287</v>
       </c>
       <c r="M2" t="n">
-        <v>32.69902127874491</v>
+        <v>32.54996253874756</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.107216780893</v>
+        <v>2063.855474450201</v>
       </c>
       <c r="O2" t="n">
-        <v>45.56431955797094</v>
+        <v>45.42967614291567</v>
       </c>
       <c r="P2" t="n">
-        <v>303.4125992688941</v>
+        <v>303.4159464756645</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19002,28 +19100,28 @@
         <v>0.093</v>
       </c>
       <c r="I3" t="n">
-        <v>6.287610620844397</v>
+        <v>6.288257054395508</v>
       </c>
       <c r="J3" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K3" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6150917522318162</v>
+        <v>0.6182862518013252</v>
       </c>
       <c r="M3" t="n">
-        <v>30.85285843313882</v>
+        <v>30.70054020560477</v>
       </c>
       <c r="N3" t="n">
-        <v>1335.751478235276</v>
+        <v>1328.141509392496</v>
       </c>
       <c r="O3" t="n">
-        <v>36.54793398039451</v>
+        <v>36.4436758490756</v>
       </c>
       <c r="P3" t="n">
-        <v>298.9155652648768</v>
+        <v>298.9092875910808</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19080,28 +19178,28 @@
         <v>0.0655</v>
       </c>
       <c r="I4" t="n">
-        <v>6.261162140815754</v>
+        <v>6.263717967343981</v>
       </c>
       <c r="J4" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K4" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6170078140076798</v>
+        <v>0.6202402746618656</v>
       </c>
       <c r="M4" t="n">
-        <v>30.65713026212781</v>
+        <v>30.50565167575031</v>
       </c>
       <c r="N4" t="n">
-        <v>1330.944239282972</v>
+        <v>1323.714804690381</v>
       </c>
       <c r="O4" t="n">
-        <v>36.48210848187057</v>
+        <v>36.3828916482786</v>
       </c>
       <c r="P4" t="n">
-        <v>303.4677779979488</v>
+        <v>303.4431799126435</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19158,28 +19256,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>6.451745641393797</v>
+        <v>6.458063480952615</v>
       </c>
       <c r="J5" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K5" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6241804693496208</v>
+        <v>0.6275960869137212</v>
       </c>
       <c r="M5" t="n">
-        <v>31.28863576246678</v>
+        <v>31.13421023876266</v>
       </c>
       <c r="N5" t="n">
-        <v>1363.262402720988</v>
+        <v>1356.054826864214</v>
       </c>
       <c r="O5" t="n">
-        <v>36.9223834918737</v>
+        <v>36.82464971814687</v>
       </c>
       <c r="P5" t="n">
-        <v>298.608545358205</v>
+        <v>298.5472856913575</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19236,28 +19334,28 @@
         <v>0.0467</v>
       </c>
       <c r="I6" t="n">
-        <v>6.224512447419615</v>
+        <v>6.231399531851093</v>
       </c>
       <c r="J6" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K6" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6310678961428985</v>
+        <v>0.6345099958156567</v>
       </c>
       <c r="M6" t="n">
-        <v>29.44357883171708</v>
+        <v>29.3042791240443</v>
       </c>
       <c r="N6" t="n">
-        <v>1228.685981676158</v>
+        <v>1222.251006355311</v>
       </c>
       <c r="O6" t="n">
-        <v>35.05261732989646</v>
+        <v>34.96070660549228</v>
       </c>
       <c r="P6" t="n">
-        <v>304.3222505437886</v>
+        <v>304.2555004425905</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19314,28 +19412,28 @@
         <v>0.0569</v>
       </c>
       <c r="I7" t="n">
-        <v>6.252347386358236</v>
+        <v>6.260104634234943</v>
       </c>
       <c r="J7" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K7" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6330071786511819</v>
+        <v>0.6365657980261674</v>
       </c>
       <c r="M7" t="n">
-        <v>29.47815286133544</v>
+        <v>29.33929807298815</v>
       </c>
       <c r="N7" t="n">
-        <v>1228.073960916548</v>
+        <v>1221.639679493344</v>
       </c>
       <c r="O7" t="n">
-        <v>35.04388621309783</v>
+        <v>34.95196245553809</v>
       </c>
       <c r="P7" t="n">
-        <v>302.895436653398</v>
+        <v>302.8206273406228</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19392,28 +19490,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>7.065236356474471</v>
+        <v>7.073272310410595</v>
       </c>
       <c r="J8" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K8" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6409116436093238</v>
+        <v>0.6444800272905412</v>
       </c>
       <c r="M8" t="n">
-        <v>33.57994604543087</v>
+        <v>33.41132852236795</v>
       </c>
       <c r="N8" t="n">
-        <v>1531.241210123367</v>
+        <v>1522.860882851526</v>
       </c>
       <c r="O8" t="n">
-        <v>39.13107729316134</v>
+        <v>39.02385017974938</v>
       </c>
       <c r="P8" t="n">
-        <v>297.1888324221094</v>
+        <v>297.1117476729925</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19470,28 +19568,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7.701681377256937</v>
+        <v>7.710103402632055</v>
       </c>
       <c r="J9" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K9" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L9" t="n">
-        <v>0.65169155082394</v>
+        <v>0.6550018497714856</v>
       </c>
       <c r="M9" t="n">
-        <v>35.68424068388973</v>
+        <v>35.50884948216859</v>
       </c>
       <c r="N9" t="n">
-        <v>1742.596764845471</v>
+        <v>1733.409641518548</v>
       </c>
       <c r="O9" t="n">
-        <v>41.7444219608497</v>
+        <v>41.63423641089804</v>
       </c>
       <c r="P9" t="n">
-        <v>294.2146135175676</v>
+        <v>294.133098385617</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19548,28 +19646,28 @@
         <v>0.0556</v>
       </c>
       <c r="I10" t="n">
-        <v>7.740213834707192</v>
+        <v>7.74773736450372</v>
       </c>
       <c r="J10" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K10" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6570180457096703</v>
+        <v>0.6601603597504464</v>
       </c>
       <c r="M10" t="n">
-        <v>35.3423376328693</v>
+        <v>35.17102067474757</v>
       </c>
       <c r="N10" t="n">
-        <v>1726.347005225344</v>
+        <v>1717.408693646694</v>
       </c>
       <c r="O10" t="n">
-        <v>41.54933218747738</v>
+        <v>41.44162995885531</v>
       </c>
       <c r="P10" t="n">
-        <v>298.5069626247014</v>
+        <v>298.4341771973634</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19607,7 +19705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K380"/>
+  <dimension ref="A1:K382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40431,6 +40529,120 @@
         </is>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>-42.21798329455828,173.8644334272376</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>-42.21803483282036,173.86352685842175</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>-42.21819055752841,173.8628281594141</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>-42.21845129280363,173.86222538504438</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>-42.2187080628249,173.86151446833028</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>-42.21904213699531,173.86083070504284</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>-42.219529927353896,173.86021253026888</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>-42.21998685945603,173.85969744606822</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>-42.22039842697852,173.85914225451992</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>-42.217842571034424,173.86438857950463</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>-42.21795368522953,173.86350099796474</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>-42.21812222653933,173.8627949769432</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>-42.21838104105051,173.86217630263297</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>-42.2186786067209,173.86149019326342</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>-42.21902560750116,173.8608154315734</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>-42.21949718325427,173.8601816559076</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>-42.2199078432908,173.85961232861217</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>-42.22033299951029,173.85906347218815</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0386/nzd0386.xlsx
+++ b/data/nzd0386/nzd0386.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K382"/>
+  <dimension ref="A1:K383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14927,6 +14927,45 @@
       <c r="K382" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>461.5878947368421</v>
+      </c>
+      <c r="C383" t="n">
+        <v>449.96</v>
+      </c>
+      <c r="D383" t="n">
+        <v>460.3966666666667</v>
+      </c>
+      <c r="E383" t="n">
+        <v>461.4</v>
+      </c>
+      <c r="F383" t="n">
+        <v>466.8614285714286</v>
+      </c>
+      <c r="G383" t="n">
+        <v>461.1666666666667</v>
+      </c>
+      <c r="H383" t="n">
+        <v>475.44</v>
+      </c>
+      <c r="I383" t="n">
+        <v>486.39</v>
+      </c>
+      <c r="J383" t="n">
+        <v>492.66</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B390"/>
+  <dimension ref="A1:B391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18849,6 +18888,16 @@
       </c>
       <c r="B390" t="n">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -19022,28 +19071,28 @@
         <v>0.1242</v>
       </c>
       <c r="I2" t="n">
-        <v>6.442841141863651</v>
+        <v>6.437755500550846</v>
       </c>
       <c r="J2" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K2" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5297171985855287</v>
+        <v>0.5309622978892976</v>
       </c>
       <c r="M2" t="n">
-        <v>32.54996253874756</v>
+        <v>32.48458036303853</v>
       </c>
       <c r="N2" t="n">
-        <v>2063.855474450201</v>
+        <v>2057.799141314536</v>
       </c>
       <c r="O2" t="n">
-        <v>45.42967614291567</v>
+        <v>45.36297103711942</v>
       </c>
       <c r="P2" t="n">
-        <v>303.4159464756645</v>
+        <v>303.4653455630512</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19100,28 +19149,28 @@
         <v>0.093</v>
       </c>
       <c r="I3" t="n">
-        <v>6.288257054395508</v>
+        <v>6.281400612072195</v>
       </c>
       <c r="J3" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K3" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6182862518013252</v>
+        <v>0.6192672675954247</v>
       </c>
       <c r="M3" t="n">
-        <v>30.70054020560477</v>
+        <v>30.65653274770036</v>
       </c>
       <c r="N3" t="n">
-        <v>1328.141509392496</v>
+        <v>1324.688761295661</v>
       </c>
       <c r="O3" t="n">
-        <v>36.4436758490756</v>
+        <v>36.39627400292043</v>
       </c>
       <c r="P3" t="n">
-        <v>298.9092875910808</v>
+        <v>298.9765791181549</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19178,28 +19227,28 @@
         <v>0.0655</v>
       </c>
       <c r="I4" t="n">
-        <v>6.263717967343981</v>
+        <v>6.260857987159739</v>
       </c>
       <c r="J4" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K4" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6202402746618656</v>
+        <v>0.6215246303150491</v>
       </c>
       <c r="M4" t="n">
-        <v>30.50565167575031</v>
+        <v>30.44117356866589</v>
       </c>
       <c r="N4" t="n">
-        <v>1323.714804690381</v>
+        <v>1320.138412716325</v>
       </c>
       <c r="O4" t="n">
-        <v>36.3828916482786</v>
+        <v>36.33370904155431</v>
       </c>
       <c r="P4" t="n">
-        <v>303.4431799126435</v>
+        <v>303.4708089741836</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19256,28 +19305,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>6.458063480952615</v>
+        <v>6.45570759884089</v>
       </c>
       <c r="J5" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K5" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6275960869137212</v>
+        <v>0.6289015721909477</v>
       </c>
       <c r="M5" t="n">
-        <v>31.13421023876266</v>
+        <v>31.06525494038332</v>
       </c>
       <c r="N5" t="n">
-        <v>1356.054826864214</v>
+        <v>1352.387485468051</v>
       </c>
       <c r="O5" t="n">
-        <v>36.82464971814687</v>
+        <v>36.77482135195291</v>
       </c>
       <c r="P5" t="n">
-        <v>298.5472856913575</v>
+        <v>298.5701916534099</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19334,28 +19383,28 @@
         <v>0.0467</v>
       </c>
       <c r="I6" t="n">
-        <v>6.231399531851093</v>
+        <v>6.232188586220031</v>
       </c>
       <c r="J6" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K6" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6345099958156567</v>
+        <v>0.6360341760341648</v>
       </c>
       <c r="M6" t="n">
-        <v>29.3042791240443</v>
+        <v>29.22738293790134</v>
       </c>
       <c r="N6" t="n">
-        <v>1222.251006355311</v>
+        <v>1218.953003029528</v>
       </c>
       <c r="O6" t="n">
-        <v>34.96070660549228</v>
+        <v>34.91350745813901</v>
       </c>
       <c r="P6" t="n">
-        <v>304.2555004425905</v>
+        <v>304.2478356273484</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19412,28 +19461,28 @@
         <v>0.0569</v>
       </c>
       <c r="I7" t="n">
-        <v>6.260104634234943</v>
+        <v>6.25807931456598</v>
       </c>
       <c r="J7" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K7" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6365657980261674</v>
+        <v>0.6379061783365305</v>
       </c>
       <c r="M7" t="n">
-        <v>29.33929807298815</v>
+        <v>29.27323672669757</v>
       </c>
       <c r="N7" t="n">
-        <v>1221.639679493344</v>
+        <v>1218.3546195872</v>
       </c>
       <c r="O7" t="n">
-        <v>34.95196245553809</v>
+        <v>34.90493689418734</v>
       </c>
       <c r="P7" t="n">
-        <v>302.8206273406228</v>
+        <v>302.8401997957231</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19490,28 +19539,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>7.073272310410595</v>
+        <v>7.070578416458506</v>
       </c>
       <c r="J8" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K8" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6444800272905412</v>
+        <v>0.6458205381844934</v>
       </c>
       <c r="M8" t="n">
-        <v>33.41132852236795</v>
+        <v>33.33571123443359</v>
       </c>
       <c r="N8" t="n">
-        <v>1522.860882851526</v>
+        <v>1518.619197485571</v>
       </c>
       <c r="O8" t="n">
-        <v>39.02385017974938</v>
+        <v>38.96946493712188</v>
       </c>
       <c r="P8" t="n">
-        <v>297.1117476729925</v>
+        <v>297.1376475879682</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19568,28 +19617,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7.710103402632055</v>
+        <v>7.706091905692614</v>
       </c>
       <c r="J9" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K9" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6550018497714856</v>
+        <v>0.6561695093861551</v>
       </c>
       <c r="M9" t="n">
-        <v>35.50884948216859</v>
+        <v>35.43914247289482</v>
       </c>
       <c r="N9" t="n">
-        <v>1733.409641518548</v>
+        <v>1728.749546735353</v>
       </c>
       <c r="O9" t="n">
-        <v>41.63423641089804</v>
+        <v>41.57823405022577</v>
       </c>
       <c r="P9" t="n">
-        <v>294.133098385617</v>
+        <v>294.1720322582084</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19646,28 +19695,28 @@
         <v>0.0556</v>
       </c>
       <c r="I10" t="n">
-        <v>7.74773736450372</v>
+        <v>7.744395150645007</v>
       </c>
       <c r="J10" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K10" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6601603597504464</v>
+        <v>0.6613148652306193</v>
       </c>
       <c r="M10" t="n">
-        <v>35.17102067474757</v>
+        <v>35.10060865861286</v>
       </c>
       <c r="N10" t="n">
-        <v>1717.408693646694</v>
+        <v>1712.881821833803</v>
       </c>
       <c r="O10" t="n">
-        <v>41.44162995885531</v>
+        <v>41.38697647610663</v>
       </c>
       <c r="P10" t="n">
-        <v>298.4341771973634</v>
+        <v>298.4665998235482</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19705,7 +19754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K382"/>
+  <dimension ref="A1:K383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40643,6 +40692,63 @@
         </is>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>-42.21784328592899,173.86438880733667</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>-42.217890180954114,173.863480760203</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>-42.218096945952965,173.8627827003615</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>-42.218340840093916,173.86214821570516</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>-42.21865989084714,173.86147476934073</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>-42.21895950599946,173.8607543530187</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>-42.21943184252468,173.86012004635455</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>-42.21984738603784,173.85954720330022</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>-42.220280724600315,173.85900052724222</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0386/nzd0386.xlsx
+++ b/data/nzd0386/nzd0386.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K383"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14966,6 +14966,84 @@
       <c r="K383" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>469.6805263157895</v>
+      </c>
+      <c r="C384" t="n">
+        <v>458.3266666666667</v>
+      </c>
+      <c r="D384" t="n">
+        <v>460.1677777777778</v>
+      </c>
+      <c r="E384" t="n">
+        <v>463.64</v>
+      </c>
+      <c r="F384" t="n">
+        <v>455.8057142857143</v>
+      </c>
+      <c r="G384" t="n">
+        <v>457.7677777777778</v>
+      </c>
+      <c r="H384" t="n">
+        <v>478.65</v>
+      </c>
+      <c r="I384" t="n">
+        <v>485.18</v>
+      </c>
+      <c r="J384" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>479.31</v>
+      </c>
+      <c r="C385" t="n">
+        <v>468.55</v>
+      </c>
+      <c r="D385" t="n">
+        <v>464.1833333333333</v>
+      </c>
+      <c r="E385" t="n">
+        <v>475.65</v>
+      </c>
+      <c r="F385" t="n">
+        <v>466.9242857142857</v>
+      </c>
+      <c r="G385" t="n">
+        <v>465.3033333333333</v>
+      </c>
+      <c r="H385" t="n">
+        <v>487.49</v>
+      </c>
+      <c r="I385" t="n">
+        <v>497.88</v>
+      </c>
+      <c r="J385" t="n">
+        <v>500.36</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -14980,7 +15058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B391"/>
+  <dimension ref="A1:B393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18898,6 +18976,26 @@
       </c>
       <c r="B391" t="n">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -19071,28 +19169,28 @@
         <v>0.1242</v>
       </c>
       <c r="I2" t="n">
-        <v>6.437755500550846</v>
+        <v>6.44211597433838</v>
       </c>
       <c r="J2" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K2" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5309622978892976</v>
+        <v>0.5346157650303134</v>
       </c>
       <c r="M2" t="n">
-        <v>32.48458036303853</v>
+        <v>32.31000268869055</v>
       </c>
       <c r="N2" t="n">
-        <v>2057.799141314536</v>
+        <v>2045.57654268965</v>
       </c>
       <c r="O2" t="n">
-        <v>45.36297103711942</v>
+        <v>45.22805039673555</v>
       </c>
       <c r="P2" t="n">
-        <v>303.4653455630512</v>
+        <v>303.4226756508805</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19149,28 +19247,28 @@
         <v>0.093</v>
       </c>
       <c r="I3" t="n">
-        <v>6.281400612072195</v>
+        <v>6.282765030336851</v>
       </c>
       <c r="J3" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K3" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6192672675954247</v>
+        <v>0.6224798756290102</v>
       </c>
       <c r="M3" t="n">
-        <v>30.65653274770036</v>
+        <v>30.50674903623474</v>
       </c>
       <c r="N3" t="n">
-        <v>1324.688761295661</v>
+        <v>1317.225306517744</v>
       </c>
       <c r="O3" t="n">
-        <v>36.39627400292043</v>
+        <v>36.29359869891306</v>
       </c>
       <c r="P3" t="n">
-        <v>298.9765791181549</v>
+        <v>298.9630547512406</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19227,28 +19325,28 @@
         <v>0.0655</v>
       </c>
       <c r="I4" t="n">
-        <v>6.260857987159739</v>
+        <v>6.256304105838074</v>
       </c>
       <c r="J4" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K4" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6215246303150491</v>
+        <v>0.6241965800525764</v>
       </c>
       <c r="M4" t="n">
-        <v>30.44117356866589</v>
+        <v>30.30505958922024</v>
       </c>
       <c r="N4" t="n">
-        <v>1320.138412716325</v>
+        <v>1313.013020924625</v>
       </c>
       <c r="O4" t="n">
-        <v>36.33370904155431</v>
+        <v>36.23552153515421</v>
       </c>
       <c r="P4" t="n">
-        <v>303.4708089741836</v>
+        <v>303.5150376425307</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19305,28 +19403,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>6.45570759884089</v>
+        <v>6.459326187349539</v>
       </c>
       <c r="J5" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K5" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6289015721909477</v>
+        <v>0.6320975909028799</v>
       </c>
       <c r="M5" t="n">
-        <v>31.06525494038332</v>
+        <v>30.92059289872963</v>
       </c>
       <c r="N5" t="n">
-        <v>1352.387485468051</v>
+        <v>1345.26089705492</v>
       </c>
       <c r="O5" t="n">
-        <v>36.77482135195291</v>
+        <v>36.67779842159177</v>
       </c>
       <c r="P5" t="n">
-        <v>298.5701916534099</v>
+        <v>298.5347429183883</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19383,28 +19481,28 @@
         <v>0.0467</v>
       </c>
       <c r="I6" t="n">
-        <v>6.232188586220031</v>
+        <v>6.226766220216365</v>
       </c>
       <c r="J6" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K6" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6360341760341648</v>
+        <v>0.6385196131665813</v>
       </c>
       <c r="M6" t="n">
-        <v>29.22738293790134</v>
+        <v>29.10977040956075</v>
       </c>
       <c r="N6" t="n">
-        <v>1218.953003029528</v>
+        <v>1212.684947765461</v>
       </c>
       <c r="O6" t="n">
-        <v>34.91350745813901</v>
+        <v>34.82362628683953</v>
       </c>
       <c r="P6" t="n">
-        <v>304.2478356273484</v>
+        <v>304.3007544751077</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19461,28 +19559,28 @@
         <v>0.0569</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25807931456598</v>
+        <v>6.253592571094983</v>
       </c>
       <c r="J7" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K7" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6379061783365305</v>
+        <v>0.640546700573368</v>
       </c>
       <c r="M7" t="n">
-        <v>29.27323672669757</v>
+        <v>29.14485470281747</v>
       </c>
       <c r="N7" t="n">
-        <v>1218.3546195872</v>
+        <v>1211.925344780046</v>
       </c>
       <c r="O7" t="n">
-        <v>34.90493689418734</v>
+        <v>34.81271814696528</v>
       </c>
       <c r="P7" t="n">
-        <v>302.8401997957231</v>
+        <v>302.8837677968967</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19539,28 +19637,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>7.070578416458506</v>
+        <v>7.073017267892036</v>
       </c>
       <c r="J8" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K8" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6458205381844934</v>
+        <v>0.6490115876279365</v>
       </c>
       <c r="M8" t="n">
-        <v>33.33571123443359</v>
+        <v>33.16733748407646</v>
       </c>
       <c r="N8" t="n">
-        <v>1518.619197485571</v>
+        <v>1510.214296100278</v>
       </c>
       <c r="O8" t="n">
-        <v>38.96946493712188</v>
+        <v>38.86147573240468</v>
       </c>
       <c r="P8" t="n">
-        <v>297.1376475879682</v>
+        <v>297.1140186363336</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19617,28 +19715,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7.706091905692614</v>
+        <v>7.702786961489856</v>
       </c>
       <c r="J9" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K9" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6561695093861551</v>
+        <v>0.658793036575301</v>
       </c>
       <c r="M9" t="n">
-        <v>35.43914247289482</v>
+        <v>35.2850904009259</v>
       </c>
       <c r="N9" t="n">
-        <v>1728.749546735353</v>
+        <v>1719.483635059658</v>
       </c>
       <c r="O9" t="n">
-        <v>41.57823405022577</v>
+        <v>41.46665690720265</v>
       </c>
       <c r="P9" t="n">
-        <v>294.1720322582084</v>
+        <v>294.2042325056335</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19695,28 +19793,28 @@
         <v>0.0556</v>
       </c>
       <c r="I10" t="n">
-        <v>7.744395150645007</v>
+        <v>7.740611424763391</v>
       </c>
       <c r="J10" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K10" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6613148652306193</v>
+        <v>0.6638092253710892</v>
       </c>
       <c r="M10" t="n">
-        <v>35.10060865861286</v>
+        <v>34.94201196873576</v>
       </c>
       <c r="N10" t="n">
-        <v>1712.881821833803</v>
+        <v>1703.845121016318</v>
       </c>
       <c r="O10" t="n">
-        <v>41.38697647610663</v>
+        <v>41.27765886065146</v>
       </c>
       <c r="P10" t="n">
-        <v>298.4665998235482</v>
+        <v>298.5034840897046</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19754,7 +19852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K383"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40749,6 +40847,120 @@
         </is>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>-42.21791420346653,173.8644114082996</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>-42.21796350005733,173.86350412579176</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>-42.21809500708441,173.8627817588221</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>-42.21835874270773,173.862160723597</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>-42.21857498920902,173.86140480126267</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>-42.218934274583624,173.86073103893978</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>-42.2194555156373,173.86014236763387</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>-42.219838879839834,173.85953804033028</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>-42.2202776377624,173.85899681034238</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>-42.217998588687074,173.86443830139635</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>-42.2180530895667,173.86353267656847</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>-42.218129021990805,173.86279827690467</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>-42.218454729464455,173.86222778612077</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>-42.21866037355435,173.861475167144</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>-42.21899021425067,173.8607827277793</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>-42.21952070885826,173.86020383815944</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>-42.219928159731055,173.85963421377406</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>-42.22033239556418,173.85906274496742</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0386/nzd0386.xlsx
+++ b/data/nzd0386/nzd0386.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K385"/>
+  <dimension ref="A1:K387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15042,6 +15042,84 @@
         <v>500.36</v>
       </c>
       <c r="K385" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:09+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>458.6831578947368</v>
+      </c>
+      <c r="C386" t="n">
+        <v>457.5133333333333</v>
+      </c>
+      <c r="D386" t="n">
+        <v>470.1188888888889</v>
+      </c>
+      <c r="E386" t="n">
+        <v>473.39</v>
+      </c>
+      <c r="F386" t="n">
+        <v>472.8071428571428</v>
+      </c>
+      <c r="G386" t="n">
+        <v>468.2988888888889</v>
+      </c>
+      <c r="H386" t="n">
+        <v>483.55</v>
+      </c>
+      <c r="I386" t="n">
+        <v>495.46</v>
+      </c>
+      <c r="J386" t="n">
+        <v>499.04</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>477.7136842105263</v>
+      </c>
+      <c r="C387" t="n">
+        <v>461.3066666666667</v>
+      </c>
+      <c r="D387" t="n">
+        <v>470.4211111111111</v>
+      </c>
+      <c r="E387" t="n">
+        <v>471.12</v>
+      </c>
+      <c r="F387" t="n">
+        <v>474.39</v>
+      </c>
+      <c r="G387" t="n">
+        <v>469.7911111111111</v>
+      </c>
+      <c r="H387" t="n">
+        <v>487.24</v>
+      </c>
+      <c r="I387" t="n">
+        <v>499.77</v>
+      </c>
+      <c r="J387" t="n">
+        <v>502.82</v>
+      </c>
+      <c r="K387" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15058,7 +15136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B393"/>
+  <dimension ref="A1:B395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18996,6 +19074,26 @@
       </c>
       <c r="B393" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -19169,28 +19267,28 @@
         <v>0.1242</v>
       </c>
       <c r="I2" t="n">
-        <v>6.44211597433838</v>
+        <v>6.438384243649503</v>
       </c>
       <c r="J2" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K2" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5346157650303134</v>
+        <v>0.5375567170786553</v>
       </c>
       <c r="M2" t="n">
-        <v>32.31000268869055</v>
+        <v>32.17740721111158</v>
       </c>
       <c r="N2" t="n">
-        <v>2045.57654268965</v>
+        <v>2033.871163166714</v>
       </c>
       <c r="O2" t="n">
-        <v>45.22805039673555</v>
+        <v>45.09846076272132</v>
       </c>
       <c r="P2" t="n">
-        <v>303.4226756508805</v>
+        <v>303.459110359421</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19247,28 +19345,28 @@
         <v>0.093</v>
       </c>
       <c r="I3" t="n">
-        <v>6.282765030336851</v>
+        <v>6.278857589351104</v>
       </c>
       <c r="J3" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K3" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6224798756290102</v>
+        <v>0.6252662300901551</v>
       </c>
       <c r="M3" t="n">
-        <v>30.50674903623474</v>
+        <v>30.35759514080831</v>
       </c>
       <c r="N3" t="n">
-        <v>1317.225306517744</v>
+        <v>1309.778615521479</v>
       </c>
       <c r="O3" t="n">
-        <v>36.29359869891306</v>
+        <v>36.19086370234177</v>
       </c>
       <c r="P3" t="n">
-        <v>298.9630547512406</v>
+        <v>299.0017279607068</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19325,28 +19423,28 @@
         <v>0.0655</v>
       </c>
       <c r="I4" t="n">
-        <v>6.256304105838074</v>
+        <v>6.260312408905145</v>
       </c>
       <c r="J4" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K4" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6241965800525764</v>
+        <v>0.6274763185213287</v>
       </c>
       <c r="M4" t="n">
-        <v>30.30505958922024</v>
+        <v>30.15196655177232</v>
       </c>
       <c r="N4" t="n">
-        <v>1313.013020924625</v>
+        <v>1305.927775954372</v>
       </c>
       <c r="O4" t="n">
-        <v>36.23552153515421</v>
+        <v>36.13762272140175</v>
       </c>
       <c r="P4" t="n">
-        <v>303.5150376425307</v>
+        <v>303.4759602222024</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19403,28 +19501,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>6.459326187349539</v>
+        <v>6.465153135953807</v>
       </c>
       <c r="J5" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K5" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6320975909028799</v>
+        <v>0.6354247923403427</v>
       </c>
       <c r="M5" t="n">
-        <v>30.92059289872963</v>
+        <v>30.76945732174008</v>
       </c>
       <c r="N5" t="n">
-        <v>1345.26089705492</v>
+        <v>1338.128388739151</v>
       </c>
       <c r="O5" t="n">
-        <v>36.67779842159177</v>
+        <v>36.58043724095095</v>
       </c>
       <c r="P5" t="n">
-        <v>298.5347429183883</v>
+        <v>298.4775896030073</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19481,28 +19579,28 @@
         <v>0.0467</v>
       </c>
       <c r="I6" t="n">
-        <v>6.226766220216365</v>
+        <v>6.234353288466745</v>
       </c>
       <c r="J6" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K6" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6385196131665813</v>
+        <v>0.6419347625077998</v>
       </c>
       <c r="M6" t="n">
-        <v>29.10977040956075</v>
+        <v>28.97617393775681</v>
       </c>
       <c r="N6" t="n">
-        <v>1212.684947765461</v>
+        <v>1206.454310999029</v>
       </c>
       <c r="O6" t="n">
-        <v>34.82362628683953</v>
+        <v>34.73405117458989</v>
       </c>
       <c r="P6" t="n">
-        <v>304.3007544751077</v>
+        <v>304.2263749629392</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19559,28 +19657,28 @@
         <v>0.0569</v>
       </c>
       <c r="I7" t="n">
-        <v>6.253592571094983</v>
+        <v>6.257028744016377</v>
       </c>
       <c r="J7" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K7" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L7" t="n">
-        <v>0.640546700573368</v>
+        <v>0.6437485979347566</v>
       </c>
       <c r="M7" t="n">
-        <v>29.14485470281747</v>
+        <v>28.9983010275218</v>
       </c>
       <c r="N7" t="n">
-        <v>1211.925344780046</v>
+        <v>1205.461820757573</v>
       </c>
       <c r="O7" t="n">
-        <v>34.81271814696528</v>
+        <v>34.71976124280772</v>
       </c>
       <c r="P7" t="n">
-        <v>302.8837677968967</v>
+        <v>302.8502542052771</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19637,28 +19735,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>7.073017267892036</v>
+        <v>7.07740809237673</v>
       </c>
       <c r="J8" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K8" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6490115876279365</v>
+        <v>0.6522852472179357</v>
       </c>
       <c r="M8" t="n">
-        <v>33.16733748407646</v>
+        <v>32.99412090642851</v>
       </c>
       <c r="N8" t="n">
-        <v>1510.214296100278</v>
+        <v>1501.873133116133</v>
       </c>
       <c r="O8" t="n">
-        <v>38.86147573240468</v>
+        <v>38.75400796196611</v>
       </c>
       <c r="P8" t="n">
-        <v>297.1140186363336</v>
+        <v>297.0713923511323</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19715,28 +19813,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7.702786961489856</v>
+        <v>7.705600642169607</v>
       </c>
       <c r="J9" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K9" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L9" t="n">
-        <v>0.658793036575301</v>
+        <v>0.6617606508181839</v>
       </c>
       <c r="M9" t="n">
-        <v>35.2850904009259</v>
+        <v>35.09950550202743</v>
       </c>
       <c r="N9" t="n">
-        <v>1719.483635059658</v>
+        <v>1710.116849400764</v>
       </c>
       <c r="O9" t="n">
-        <v>41.46665690720265</v>
+        <v>41.35355908988686</v>
       </c>
       <c r="P9" t="n">
-        <v>294.2042325056335</v>
+        <v>294.1766376239664</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19793,28 +19891,28 @@
         <v>0.0556</v>
       </c>
       <c r="I10" t="n">
-        <v>7.740611424763391</v>
+        <v>7.74124118366342</v>
       </c>
       <c r="J10" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K10" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6638092253710892</v>
+        <v>0.6665399464368185</v>
       </c>
       <c r="M10" t="n">
-        <v>34.94201196873576</v>
+        <v>34.76295994903874</v>
       </c>
       <c r="N10" t="n">
-        <v>1703.845121016318</v>
+        <v>1694.7740268441</v>
       </c>
       <c r="O10" t="n">
-        <v>41.27765886065146</v>
+        <v>41.16763324316933</v>
       </c>
       <c r="P10" t="n">
-        <v>298.5034840897046</v>
+        <v>298.4972915943305</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19852,7 +19950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K385"/>
+  <dimension ref="A1:K387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40961,6 +41059,120 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:09+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>-42.21781783107004,173.86438069505</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>-42.21795637262288,173.86350185439346</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>-42.21817930079874,173.86282269298553</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>-42.21843666701391,173.8622151665128</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>-42.21870555055404,173.8615123979419</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>-42.21901245153994,173.86080327529982</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>-42.219491652155476,173.86017644064705</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>-42.219911147348846,173.8596158877898</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>-42.22032353768714,173.85905207906444</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>-42.21798459981718,173.8644338432167</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>-42.21798961450934,173.8635124480507</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>-42.21818186085769,173.8628239361865</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>-42.218418524639496,173.86220249107316</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>-42.218717705995175,173.86152241536826</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>-42.21902352894187,173.86081351095805</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>-42.21951886515905,173.86020209973782</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>-42.21994144625883,173.8596485262232</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>-42.22034890342314,173.85908262233997</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0386/nzd0386.xlsx
+++ b/data/nzd0386/nzd0386.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K387"/>
+  <dimension ref="A1:K388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15122,6 +15122,45 @@
       <c r="K387" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>464.79</v>
+      </c>
+      <c r="C388" t="n">
+        <v>460.89</v>
+      </c>
+      <c r="D388" t="n">
+        <v>459.6733333333333</v>
+      </c>
+      <c r="E388" t="n">
+        <v>469.55</v>
+      </c>
+      <c r="F388" t="n">
+        <v>466.5242857142857</v>
+      </c>
+      <c r="G388" t="n">
+        <v>457.9733333333333</v>
+      </c>
+      <c r="H388" t="n">
+        <v>488.88</v>
+      </c>
+      <c r="I388" t="n">
+        <v>499.2000000000001</v>
+      </c>
+      <c r="J388" t="n">
+        <v>505.27</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15136,7 +15175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B395"/>
+  <dimension ref="A1:B396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19094,6 +19133,16 @@
       </c>
       <c r="B395" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -19950,7 +19999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K387"/>
+  <dimension ref="A1:K388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41173,6 +41222,63 @@
         </is>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>-42.21787134669311,173.86439775011522</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>-42.21798596315983,173.86351128442348</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>-42.2180908187518,173.86277972491447</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>-42.21840597682897,173.8621937243637</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>-42.21865730178119,173.8614726356687</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>-42.218935800511176,173.86073244891134</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>-42.21953095982537,173.86021350378527</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>-42.219937439210966,173.85964420976964</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>-42.220365344173416,173.85910241892051</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0386/nzd0386.xlsx
+++ b/data/nzd0386/nzd0386.xlsx
@@ -19316,28 +19316,28 @@
         <v>0.1242</v>
       </c>
       <c r="I2" t="n">
-        <v>6.438384243649503</v>
+        <v>6.434166976381355</v>
       </c>
       <c r="J2" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K2" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5375567170786553</v>
+        <v>0.5388589977399809</v>
       </c>
       <c r="M2" t="n">
-        <v>32.17740721111158</v>
+        <v>32.10868052735475</v>
       </c>
       <c r="N2" t="n">
-        <v>2033.871163166714</v>
+        <v>2027.934872894732</v>
       </c>
       <c r="O2" t="n">
-        <v>45.09846076272132</v>
+        <v>45.03259789191305</v>
       </c>
       <c r="P2" t="n">
-        <v>303.459110359421</v>
+        <v>303.5006604523951</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19394,28 +19394,28 @@
         <v>0.093</v>
       </c>
       <c r="I3" t="n">
-        <v>6.278857589351104</v>
+        <v>6.277437408112483</v>
       </c>
       <c r="J3" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K3" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6252662300901551</v>
+        <v>0.6266985983646363</v>
       </c>
       <c r="M3" t="n">
-        <v>30.35759514080831</v>
+        <v>30.28014376415192</v>
       </c>
       <c r="N3" t="n">
-        <v>1309.778615521479</v>
+        <v>1306.064043232331</v>
       </c>
       <c r="O3" t="n">
-        <v>36.19086370234177</v>
+        <v>36.13950806572124</v>
       </c>
       <c r="P3" t="n">
-        <v>299.0017279607068</v>
+        <v>299.0158551243446</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19472,28 +19472,28 @@
         <v>0.0655</v>
       </c>
       <c r="I4" t="n">
-        <v>6.260312408905145</v>
+        <v>6.256074021470543</v>
       </c>
       <c r="J4" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K4" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6274763185213287</v>
+        <v>0.6286233300513333</v>
       </c>
       <c r="M4" t="n">
-        <v>30.15196655177232</v>
+        <v>30.09870518234433</v>
       </c>
       <c r="N4" t="n">
-        <v>1305.927775954372</v>
+        <v>1302.537022256776</v>
       </c>
       <c r="O4" t="n">
-        <v>36.13762272140175</v>
+        <v>36.09067777497086</v>
       </c>
       <c r="P4" t="n">
-        <v>303.4759602222024</v>
+        <v>303.5174603946276</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19550,28 +19550,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>6.465153135953807</v>
+        <v>6.466174557462232</v>
       </c>
       <c r="J5" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K5" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6354247923403427</v>
+        <v>0.6369597858439688</v>
       </c>
       <c r="M5" t="n">
-        <v>30.76945732174008</v>
+        <v>30.68919634226172</v>
       </c>
       <c r="N5" t="n">
-        <v>1338.128388739151</v>
+        <v>1334.521036426597</v>
       </c>
       <c r="O5" t="n">
-        <v>36.58043724095095</v>
+        <v>36.5310968412748</v>
       </c>
       <c r="P5" t="n">
-        <v>298.4775896030073</v>
+        <v>298.4675240687469</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19628,28 +19628,28 @@
         <v>0.0467</v>
       </c>
       <c r="I6" t="n">
-        <v>6.234353288466745</v>
+        <v>6.233872540430575</v>
       </c>
       <c r="J6" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K6" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6419347625077998</v>
+        <v>0.6433456719116132</v>
       </c>
       <c r="M6" t="n">
-        <v>28.97617393775681</v>
+        <v>28.9021632985789</v>
       </c>
       <c r="N6" t="n">
-        <v>1206.454310999029</v>
+        <v>1203.239142126577</v>
       </c>
       <c r="O6" t="n">
-        <v>34.73405117458989</v>
+        <v>34.68773763344299</v>
       </c>
       <c r="P6" t="n">
-        <v>304.2263749629392</v>
+        <v>304.2311075507288</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19706,28 +19706,28 @@
         <v>0.0569</v>
       </c>
       <c r="I7" t="n">
-        <v>6.257028744016377</v>
+        <v>6.252236585028753</v>
       </c>
       <c r="J7" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K7" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6437485979347566</v>
+        <v>0.6448343602369501</v>
       </c>
       <c r="M7" t="n">
-        <v>28.9983010275218</v>
+        <v>28.95254332362081</v>
       </c>
       <c r="N7" t="n">
-        <v>1205.461820757573</v>
+        <v>1202.428679026881</v>
       </c>
       <c r="O7" t="n">
-        <v>34.71976124280772</v>
+        <v>34.67605339462497</v>
       </c>
       <c r="P7" t="n">
-        <v>302.8502542052771</v>
+        <v>302.8971791884159</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19784,28 +19784,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>7.07740809237673</v>
+        <v>7.081144407384524</v>
       </c>
       <c r="J8" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K8" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6522852472179357</v>
+        <v>0.6540026097906448</v>
       </c>
       <c r="M8" t="n">
-        <v>32.99412090642851</v>
+        <v>32.91236149581108</v>
       </c>
       <c r="N8" t="n">
-        <v>1501.873133116133</v>
+        <v>1497.808594027138</v>
       </c>
       <c r="O8" t="n">
-        <v>38.75400796196611</v>
+        <v>38.70153219224193</v>
       </c>
       <c r="P8" t="n">
-        <v>297.0713923511323</v>
+        <v>297.0349858922972</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19862,28 +19862,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7.705600642169607</v>
+        <v>7.707431740928783</v>
       </c>
       <c r="J9" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K9" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6617606508181839</v>
+        <v>0.6632635888369389</v>
       </c>
       <c r="M9" t="n">
-        <v>35.09950550202743</v>
+        <v>35.00859544058586</v>
       </c>
       <c r="N9" t="n">
-        <v>1710.116849400764</v>
+        <v>1705.474571316955</v>
       </c>
       <c r="O9" t="n">
-        <v>41.35355908988686</v>
+        <v>41.29739182220779</v>
       </c>
       <c r="P9" t="n">
-        <v>294.1766376239664</v>
+        <v>294.158619900754</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19940,28 +19940,28 @@
         <v>0.0556</v>
       </c>
       <c r="I10" t="n">
-        <v>7.74124118366342</v>
+        <v>7.743448752224047</v>
       </c>
       <c r="J10" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K10" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6665399464368185</v>
+        <v>0.6680050982118414</v>
       </c>
       <c r="M10" t="n">
-        <v>34.76295994903874</v>
+        <v>34.67650194810319</v>
       </c>
       <c r="N10" t="n">
-        <v>1694.7740268441</v>
+        <v>1690.312156621288</v>
       </c>
       <c r="O10" t="n">
-        <v>41.16763324316933</v>
+        <v>41.11340604500299</v>
       </c>
       <c r="P10" t="n">
-        <v>298.4972915943305</v>
+        <v>298.475577398691</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0386/nzd0386.xlsx
+++ b/data/nzd0386/nzd0386.xlsx
@@ -19307,13 +19307,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.095</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.0239</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1242</v>
+        <v>0.0553</v>
       </c>
       <c r="I2" t="n">
         <v>6.434183354290058</v>
@@ -19385,13 +19385,13 @@
         <v>0.1252130453928178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0658</v>
+        <v>0.0277</v>
       </c>
       <c r="H3" t="n">
-        <v>0.093</v>
+        <v>0.0604</v>
       </c>
       <c r="I3" t="n">
         <v>6.277425572541255</v>
@@ -19466,10 +19466,10 @@
         <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0347</v>
+        <v>0.0311</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0655</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>6.256084219502378</v>
@@ -19541,13 +19541,13 @@
         <v>0.3752427313787703</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0358</v>
+        <v>0.0428</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0722</v>
+        <v>0.1218</v>
       </c>
       <c r="I5" t="n">
         <v>6.466174557462232</v>
@@ -19619,13 +19619,13 @@
         <v>0.5003965804245566</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0303</v>
+        <v>0.0412</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0467</v>
+        <v>0.0998</v>
       </c>
       <c r="I6" t="n">
         <v>6.233875587201971</v>
@@ -19697,13 +19697,13 @@
         <v>0.6256096258168683</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0364</v>
+        <v>0.0445</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0569</v>
+        <v>0.1265</v>
       </c>
       <c r="I7" t="n">
         <v>6.252247646643776</v>
@@ -19775,13 +19775,13 @@
         <v>0.75082267120918</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0414</v>
+        <v>0.0397</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0674</v>
+        <v>0.1054</v>
       </c>
       <c r="I8" t="n">
         <v>7.081144407384524</v>
@@ -19856,10 +19856,10 @@
         <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0365</v>
+        <v>0.036</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0764</v>
       </c>
       <c r="I9" t="n">
         <v>7.707431740928783</v>
@@ -19931,13 +19931,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0339</v>
+        <v>0.0383</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0556</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>7.743448752224047</v>
